--- a/flash_cards/math/1/flash_data.xlsx
+++ b/flash_cards/math/1/flash_data.xlsx
@@ -22,87 +22,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t xml:space="preserve">Пространство Rn</t>
+    <t xml:space="preserve">Определение: Пространство Rn</t>
   </si>
   <si>
     <t xml:space="preserve">Скалярное произведение и его свойства</t>
   </si>
   <si>
-    <t xml:space="preserve">Длинна вектора</t>
+    <t xml:space="preserve">Определение: Длина вектора</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема: неравенство Коши-Буняковского</t>
   </si>
   <si>
-    <t xml:space="preserve">Метрическое пространство</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Последовательность в Rn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Предел в Rn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сходящаяся последовательность в Rn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подпоследовательность в Rn</t>
+    <t xml:space="preserve">Определение: Метрическое пространство</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Последовательность в Rn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Предел в Rn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Сходящаяся последовательность в Rn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Подпоследовательность в Rn</t>
   </si>
   <si>
     <t xml:space="preserve">Лемма: о покоординатной сходимости в Rn</t>
   </si>
   <si>
-    <t xml:space="preserve">Фундаментальная последовательность в Rn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критерий Коши для последовательностей в Rn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Открытый шар, Замкнутый шар </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">в Rn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Эпсилон окрестность точки </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">в Rn</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Внутренняя точка, внешняя точка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Граничная точка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открытое множество</t>
+    <t xml:space="preserve">Определение: Фундаментальная последовательность в Rn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Критерий Коши для последовательностей в Rn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Определение: Открытый шар, замкнутый шар </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">в Rn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Определение: Эпсилон окрестность точки </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">в Rn</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Внутренняя точка, внешняя точка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Граничная точка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Открытое множество</t>
   </si>
   <si>
     <t xml:space="preserve">Лемма: об открытом и замкнутом шаре</t>
@@ -118,51 +120,54 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Предельная точка </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">в Rn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Критерий замкнутости множества </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">в Rn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Замыкание множества </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t xml:space="preserve">Определение: Предельная точка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">в Rn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Теорема: Критерий замкнутости множества </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">в Rn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Определение: Замыкание множества </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">в Rn</t>
     </r>
@@ -178,13 +183,14 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Компакт </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t xml:space="preserve">Определение: Компакт </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">в Rn</t>
     </r>
@@ -207,25 +213,27 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">в Rn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ограниченное множество </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">в Rn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Определение: Ограниченное множество </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">в Rn</t>
     </r>
@@ -261,21 +269,25 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,12 +339,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -345,12 +357,13 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/flash_cards/math/1/flash_data.xlsx
+++ b/flash_cards/math/1/flash_data.xlsx
@@ -239,7 +239,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Теорема: критерий замкнутости множества</t>
+    <t xml:space="preserve">Теорема: критерий компактности множества</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема: Свойство бесконечного подмножества компакта</t>
@@ -269,19 +269,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -339,12 +336,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -357,7 +354,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
